--- a/2022/2.SKODA FABIA.xlsx
+++ b/2022/2.SKODA FABIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btn/PycharmProjects/pojazdy/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btn/PycharmProjects/cars/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485EDBE9-02DD-A943-95BC-8DEF501D6877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197C1CF-AAEB-8942-AB1D-F6D4AFEB8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7120" yWindow="2140" windowWidth="16380" windowHeight="8200" tabRatio="500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="styczen" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="pazdziernik" sheetId="10" r:id="rId10"/>
     <sheet name="listopad" sheetId="11" r:id="rId11"/>
     <sheet name="grudzien" sheetId="12" r:id="rId12"/>
+    <sheet name="ochrona_srodowiska" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="61">
   <si>
     <t>ROZLICZENIE MIESIĘCZNE ZUŻYCIA PALIWA</t>
   </si>
@@ -211,6 +212,21 @@
   </si>
   <si>
     <t>grudzien</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>sierpień</t>
+  </si>
+  <si>
+    <t>grudzień</t>
+  </si>
+  <si>
+    <t>SUMA</t>
   </si>
 </sst>
 </file>
@@ -409,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -444,19 +460,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -761,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +792,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -784,7 +801,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -794,7 +811,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -803,7 +820,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -1250,24 +1267,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -1276,16 +1303,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.0416666666666701E-2" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1310,7 +1327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -1319,7 +1336,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -1329,7 +1346,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -1338,7 +1355,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -1784,24 +1801,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -1810,16 +1837,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1848,7 +1865,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -1857,7 +1874,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -1867,7 +1884,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -1876,7 +1893,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -2322,24 +2339,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -2348,16 +2375,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2386,7 +2403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -2395,7 +2412,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -2405,7 +2422,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -2414,7 +2431,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -2860,24 +2877,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -2886,16 +2913,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2903,6 +2920,139 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E0B85F-535E-DC48-878E-E75B544342E8}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1">
+        <f>styczen!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2">
+        <f>luty!E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="21">
+        <f>marzec!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <f>kwiecien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <f>maj!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <f>czerwiec!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>lipiec!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>sierpien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <f>wrzesien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <f>pazdziernik!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f>listopad!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <f>grudzien!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B1:B12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2924,7 +3074,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -2933,7 +3083,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -2943,7 +3093,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -2952,7 +3102,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -3398,24 +3548,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -3424,16 +3584,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3462,7 +3612,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -3471,7 +3621,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -3481,7 +3631,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -3490,7 +3640,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -3936,24 +4086,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -3962,16 +4122,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4000,7 +4150,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -4009,7 +4159,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -4019,7 +4169,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -4028,7 +4178,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -4474,24 +4624,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -4500,16 +4660,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4538,7 +4688,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -4547,7 +4697,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -4557,7 +4707,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -4566,7 +4716,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -5012,24 +5162,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -5038,16 +5198,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5076,7 +5226,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -5085,7 +5235,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -5095,7 +5245,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -5104,7 +5254,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -5550,24 +5700,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -5576,16 +5736,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5614,7 +5764,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -5623,7 +5773,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -5633,7 +5783,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -5642,7 +5792,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -6088,24 +6238,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -6114,16 +6274,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6152,7 +6302,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -6161,7 +6311,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -6171,7 +6321,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -6180,7 +6330,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -6626,24 +6776,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -6652,16 +6812,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6690,7 +6840,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -6699,7 +6849,7 @@
       <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
@@ -6709,7 +6859,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17"/>
@@ -6718,7 +6868,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
@@ -7164,24 +7314,34 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C42:D42"/>
@@ -7190,16 +7350,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
